--- a/examples/sources/data/unsolved/to_schedule/2019-02-18.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-18.xlsx
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
         <v>43514</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="2">
         <v>43514</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" s="2">
         <v>43514</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43514</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" s="2">
         <v>43514</v>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" s="2">
         <v>43514</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" s="2">
         <v>43514</v>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" s="2">
         <v>43514</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="2">
         <v>43514</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N166">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191">
         <v>1</v>
@@ -9269,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="N196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O196" s="2">
         <v>43514</v>
@@ -9310,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O197" s="2">
         <v>43514</v>
